--- a/procédés.xlsx
+++ b/procédés.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anne-gabrielle/mig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895391BA-7B1E-774F-8594-623CC01505D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFF4064-BD30-E544-BFC5-A5FE9E0E12ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="8140" windowWidth="28040" windowHeight="15980" xr2:uid="{98EDCB6B-0F95-CD44-8620-F5FC865CC48A}"/>
+    <workbookView xWindow="6540" yWindow="500" windowWidth="11560" windowHeight="15980" xr2:uid="{98EDCB6B-0F95-CD44-8620-F5FC865CC48A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649C43B3-95A6-3040-B2DF-9A0014A74E27}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/procédés.xlsx
+++ b/procédés.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anne-gabrielle/mig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFF4064-BD30-E544-BFC5-A5FE9E0E12ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B0789B-4FB5-344D-AB32-5AA5AD5509EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="500" windowWidth="11560" windowHeight="15980" xr2:uid="{98EDCB6B-0F95-CD44-8620-F5FC865CC48A}"/>
+    <workbookView xWindow="4720" yWindow="500" windowWidth="11560" windowHeight="15980" xr2:uid="{98EDCB6B-0F95-CD44-8620-F5FC865CC48A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
     <t>Nom</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Rotule</t>
   </si>
   <si>
-    <t>Tweed</t>
-  </si>
-  <si>
     <t>limage caoutchouc</t>
   </si>
   <si>
@@ -86,6 +83,27 @@
   </si>
   <si>
     <t>oui</t>
+  </si>
+  <si>
+    <t>Tissage tweed</t>
+  </si>
+  <si>
+    <t>Rigide</t>
+  </si>
+  <si>
+    <t>Épais</t>
+  </si>
+  <si>
+    <t>Mosaïque possible</t>
+  </si>
+  <si>
+    <t>Déparayé</t>
+  </si>
+  <si>
+    <t>Tout type de forme</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -437,15 +455,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649C43B3-95A6-3040-B2DF-9A0014A74E27}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,75 +476,165 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
